--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itga2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N2">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O2">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P2">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q2">
-        <v>34.739465493352</v>
+        <v>100.1033556892133</v>
       </c>
       <c r="R2">
-        <v>312.655189440168</v>
+        <v>900.93020120292</v>
       </c>
       <c r="S2">
-        <v>0.005708901058530584</v>
+        <v>0.01125468724781615</v>
       </c>
       <c r="T2">
-        <v>0.005708901058530585</v>
+        <v>0.01125468724781615</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P3">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q3">
-        <v>21.50730485743467</v>
+        <v>31.495510479608</v>
       </c>
       <c r="R3">
-        <v>193.565743716912</v>
+        <v>283.459594316472</v>
       </c>
       <c r="S3">
-        <v>0.0035343973697651</v>
+        <v>0.003541061313257256</v>
       </c>
       <c r="T3">
-        <v>0.0035343973697651</v>
+        <v>0.003541061313257256</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N4">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q4">
-        <v>14.48051457641334</v>
+        <v>18.21117484382</v>
       </c>
       <c r="R4">
-        <v>130.32463118772</v>
+        <v>163.90057359438</v>
       </c>
       <c r="S4">
-        <v>0.00237965161004488</v>
+        <v>0.00204749457069976</v>
       </c>
       <c r="T4">
-        <v>0.00237965161004488</v>
+        <v>0.00204749457069976</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N5">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q5">
-        <v>0.6960909590511111</v>
+        <v>0.5415007132313333</v>
       </c>
       <c r="R5">
-        <v>6.26481863146</v>
+        <v>4.873506419082</v>
       </c>
       <c r="S5">
-        <v>0.0001143919273519317</v>
+        <v>6.088128744464E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001143919273519317</v>
+        <v>6.088128744464E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N6">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O6">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P6">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q6">
-        <v>2850.32331362822</v>
+        <v>5608.632297610021</v>
       </c>
       <c r="R6">
-        <v>25652.90982265398</v>
+        <v>50477.69067849019</v>
       </c>
       <c r="S6">
-        <v>0.4684071430356497</v>
+        <v>0.6305822813131046</v>
       </c>
       <c r="T6">
-        <v>0.4684071430356498</v>
+        <v>0.6305822813131045</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P7">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q7">
         <v>1764.643513590813</v>
@@ -883,10 +883,10 @@
         <v>15881.79162231732</v>
       </c>
       <c r="S7">
-        <v>0.2899922344687655</v>
+        <v>0.198400050753664</v>
       </c>
       <c r="T7">
-        <v>0.2899922344687656</v>
+        <v>0.198400050753664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N8">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q8">
-        <v>1188.105450222967</v>
+        <v>1020.343251265033</v>
       </c>
       <c r="R8">
-        <v>10692.9490520067</v>
+        <v>9183.089261385299</v>
       </c>
       <c r="S8">
-        <v>0.1952470012447904</v>
+        <v>0.1147178743344092</v>
       </c>
       <c r="T8">
-        <v>0.1952470012447904</v>
+        <v>0.1147178743344092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N9">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q9">
-        <v>57.11326472103888</v>
+        <v>30.33942637085222</v>
       </c>
       <c r="R9">
-        <v>514.0193824893501</v>
+        <v>273.05483733767</v>
       </c>
       <c r="S9">
-        <v>0.009385693556064428</v>
+        <v>0.003411082003506518</v>
       </c>
       <c r="T9">
-        <v>0.009385693556064428</v>
+        <v>0.003411082003506518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N10">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O10">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P10">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q10">
-        <v>44.21013021338</v>
+        <v>128.0847356499111</v>
       </c>
       <c r="R10">
-        <v>397.89117192042</v>
+        <v>1152.7626208492</v>
       </c>
       <c r="S10">
-        <v>0.007265260290813614</v>
+        <v>0.01440065251593051</v>
       </c>
       <c r="T10">
-        <v>0.007265260290813615</v>
+        <v>0.01440065251593051</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.233244</v>
       </c>
       <c r="O11">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P11">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q11">
-        <v>27.37062113025333</v>
+        <v>40.29928973074666</v>
       </c>
       <c r="R11">
-        <v>246.33559017228</v>
+        <v>362.69360757672</v>
       </c>
       <c r="S11">
-        <v>0.00449794392988128</v>
+        <v>0.004530876104062072</v>
       </c>
       <c r="T11">
-        <v>0.004497943929881282</v>
+        <v>0.004530876104062072</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N12">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q12">
-        <v>18.42818897436667</v>
+        <v>23.30165157486667</v>
       </c>
       <c r="R12">
-        <v>165.8537007693</v>
+        <v>209.7148641738</v>
       </c>
       <c r="S12">
-        <v>0.003028391659126024</v>
+        <v>0.002619820275025666</v>
       </c>
       <c r="T12">
-        <v>0.003028391659126025</v>
+        <v>0.002619820275025666</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N13">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q13">
-        <v>0.885859108738889</v>
+        <v>0.6928636430911111</v>
       </c>
       <c r="R13">
-        <v>7.972731978650001</v>
+        <v>6.23577278782</v>
       </c>
       <c r="S13">
-        <v>0.0001455774270492504</v>
+        <v>7.789912290835661E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001455774270492505</v>
+        <v>7.78991229083566E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N14">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O14">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P14">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q14">
-        <v>30.465811313492</v>
+        <v>85.00988197625999</v>
       </c>
       <c r="R14">
-        <v>274.192301821428</v>
+        <v>765.08893778634</v>
       </c>
       <c r="S14">
-        <v>0.005006591206472976</v>
+        <v>0.009557717900956093</v>
       </c>
       <c r="T14">
-        <v>0.005006591206472978</v>
+        <v>0.009557717900956091</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.233244</v>
       </c>
       <c r="O15">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P15">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q15">
-        <v>18.86147303486133</v>
+        <v>26.746652099916</v>
       </c>
       <c r="R15">
-        <v>169.753257313752</v>
+        <v>240.719868899244</v>
       </c>
       <c r="S15">
-        <v>0.00309959528291453</v>
+        <v>0.003007143988711825</v>
       </c>
       <c r="T15">
-        <v>0.003099595282914531</v>
+        <v>0.003007143988711825</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N16">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q16">
-        <v>12.69911953284667</v>
+        <v>15.46531395939</v>
       </c>
       <c r="R16">
-        <v>114.29207579562</v>
+        <v>139.18782563451</v>
       </c>
       <c r="S16">
-        <v>0.002086906517238975</v>
+        <v>0.001738775594522605</v>
       </c>
       <c r="T16">
-        <v>0.002086906517238975</v>
+        <v>0.001738775594522605</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N17">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q17">
-        <v>0.6104577463788889</v>
+        <v>0.459853832121</v>
       </c>
       <c r="R17">
-        <v>5.49411971741</v>
+        <v>4.138684489089</v>
       </c>
       <c r="S17">
-        <v>0.0001003194155407359</v>
+        <v>5.170167398083833E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001003194155407359</v>
+        <v>5.170167398083833E-05</v>
       </c>
     </row>
   </sheetData>
